--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1809715.395821545</v>
+        <v>-1812603.356091711</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361.5704549737887</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>36.94339460316145</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>165.4925774359689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>186.8225637784164</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.032773951870474</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>153.3326953250856</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>177.1141924661245</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>49.82876215373586</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>164.929586827117</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>4.019807611470896</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>200.9132055842287</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1658,10 +1658,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>12.96996784159862</v>
       </c>
       <c r="Y16" t="n">
-        <v>72.2376664596877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>34.22340015155905</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>172.6684446854161</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>146.5235739004484</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G25" t="n">
-        <v>63.8415564125923</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2965,7 +2965,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
         <v>56.98118882652582</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>618.3948626148824</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="C2" t="n">
-        <v>618.3948626148824</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D2" t="n">
-        <v>618.3948626148824</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E2" t="n">
-        <v>618.3948626148824</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2604.803841343502</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2604.803841343502</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2604.803841343502</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2273.740953999931</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>1920.972298729817</v>
       </c>
       <c r="X2" t="n">
-        <v>1373.7568763824</v>
+        <v>1547.506540468737</v>
       </c>
       <c r="Y2" t="n">
-        <v>983.6175444065882</v>
+        <v>1157.367208492925</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,43 +4492,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1981.014288776631</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1628.245633506517</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1254.779875245437</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y5" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4653,16 +4653,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9495687306105</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9927747426009</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9927747426009</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1015.145187653148</v>
+        <v>1738.928742158723</v>
       </c>
       <c r="C8" t="n">
-        <v>1015.145187653148</v>
+        <v>1369.966225218311</v>
       </c>
       <c r="D8" t="n">
-        <v>656.8794890463976</v>
+        <v>1011.700526611561</v>
       </c>
       <c r="E8" t="n">
-        <v>656.8794890463976</v>
+        <v>625.9122740133164</v>
       </c>
       <c r="F8" t="n">
-        <v>649.9339882971941</v>
+        <v>471.030763583937</v>
       </c>
       <c r="G8" t="n">
-        <v>232.8462065336216</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4808,10 +4808,10 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>912.0443006336772</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1543.762111616989</v>
+        <v>1830.581063083657</v>
       </c>
       <c r="N8" t="n">
         <v>2171.069779676835</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527913</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.379601184342</v>
+        <v>2112.394500419803</v>
       </c>
       <c r="W8" t="n">
-        <v>1388.610945914228</v>
+        <v>2112.394500419803</v>
       </c>
       <c r="X8" t="n">
-        <v>1015.145187653148</v>
+        <v>1738.928742158723</v>
       </c>
       <c r="Y8" t="n">
-        <v>1015.145187653148</v>
+        <v>1738.928742158723</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1028.225718003799</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C9" t="n">
-        <v>853.7726887226717</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D9" t="n">
-        <v>704.8382790614204</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E9" t="n">
-        <v>545.6008240559649</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>399.0662660828499</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>261.6248684420718</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>160.7088905868764</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>114.8040335771929</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>114.8040335771929</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>182.4118532405499</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>319.6414512562439</v>
+        <v>520.6009841418684</v>
       </c>
       <c r="M9" t="n">
-        <v>825.4874576971851</v>
+        <v>1161.146333608973</v>
       </c>
       <c r="N9" t="n">
-        <v>1493.031857724195</v>
+        <v>1828.690733635983</v>
       </c>
       <c r="O9" t="n">
-        <v>2042.467866476918</v>
+        <v>2378.126742388706</v>
       </c>
       <c r="P9" t="n">
-        <v>2466.435634957755</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R9" t="n">
-        <v>2676.037191420409</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S9" t="n">
-        <v>2526.570402283044</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T9" t="n">
-        <v>2329.581106443132</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U9" t="n">
-        <v>2101.442318954298</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V9" t="n">
-        <v>1866.290210722555</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W9" t="n">
-        <v>1612.052853994353</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X9" t="n">
-        <v>1404.201353788821</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y9" t="n">
-        <v>1196.441055023867</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>328.5712958583739</v>
+        <v>493.3358311156469</v>
       </c>
       <c r="C10" t="n">
-        <v>328.5712958583739</v>
+        <v>493.3358311156469</v>
       </c>
       <c r="D10" t="n">
-        <v>178.4546564460382</v>
+        <v>343.2191917033111</v>
       </c>
       <c r="E10" t="n">
-        <v>178.4546564460382</v>
+        <v>343.2191917033111</v>
       </c>
       <c r="F10" t="n">
-        <v>178.4546564460382</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="G10" t="n">
-        <v>178.4546564460382</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460382</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>1003.545580296138</v>
       </c>
       <c r="T10" t="n">
-        <v>715.9594172515172</v>
+        <v>1003.545580296138</v>
       </c>
       <c r="U10" t="n">
-        <v>715.9594172515172</v>
+        <v>1003.545580296138</v>
       </c>
       <c r="V10" t="n">
-        <v>549.363875001904</v>
+        <v>1003.545580296138</v>
       </c>
       <c r="W10" t="n">
-        <v>549.363875001904</v>
+        <v>714.128410259177</v>
       </c>
       <c r="X10" t="n">
-        <v>549.363875001904</v>
+        <v>714.128410259177</v>
       </c>
       <c r="Y10" t="n">
-        <v>328.5712958583739</v>
+        <v>493.3358311156469</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>576.8388927589092</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C13" t="n">
-        <v>407.9027098310023</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2442.902671851501</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2260.047837506405</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>2040.446372529346</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>1751.371145873544</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V13" t="n">
-        <v>1496.686657667657</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W13" t="n">
-        <v>1207.269487630696</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X13" t="n">
-        <v>979.2799367326791</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y13" t="n">
-        <v>758.4873575891489</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="14">
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5501,10 +5501,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5598,22 +5598,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1652.717886400351</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900017</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>443.4949469776659</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>295.5818533952728</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>295.5818533952728</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>128.3857541101527</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1815.886107649656</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>446.9048623224643</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>300.0149148245539</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6379,16 +6379,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6403,31 +6403,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,10 +6461,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6658,7 +6658,7 @@
         <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X31" t="n">
         <v>1280.33868158239</v>
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6862,7 +6862,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,16 +6880,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.560501433898</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7120,16 +7120,16 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.79828551875</v>
@@ -7138,7 +7138,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345482</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
         <v>483.825546038073</v>
@@ -7339,40 +7339,40 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684978</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319315</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580106</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,31 +7588,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.38532953243</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,13 +8456,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>127.9451019578563</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>147.6308118193897</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>329.6451212993297</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>473.6238973478236</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>128.0148769125371</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O14" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9644,13 +9644,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>271.5740434674719</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,16 +22592,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>137.4723182058101</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>204.2385232425001</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,31 +22702,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>83.36203824822857</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.35543909865079</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>85.27126880501541</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>212.7396875474385</v>
       </c>
       <c r="Y16" t="n">
-        <v>146.3469868924071</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>106.0713126946648</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>44.7370056418722</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>139.9994244361426</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G25" t="n">
-        <v>101.6825818796765</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -26329,28 +26329,28 @@
         <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
-        <v>100893.3249612508</v>
+        <v>100893.3249612507</v>
       </c>
       <c r="I2" t="n">
         <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
+        <v>102630.2212330356</v>
+      </c>
+      <c r="K2" t="n">
+        <v>102630.2212330354</v>
+      </c>
+      <c r="L2" t="n">
         <v>102630.2212330355</v>
       </c>
-      <c r="K2" t="n">
-        <v>102630.2212330356</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>102630.2212330354</v>
-      </c>
-      <c r="M2" t="n">
-        <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>195850.9371862248</v>
+        <v>195850.9371862247</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363173</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.53656668276</v>
+        <v>5677.536566682735</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682773</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.53656668275</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682748</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="J4" t="n">
+        <v>13668.39582977621</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13668.3958297762</v>
+      </c>
+      <c r="L4" t="n">
         <v>13668.39582977622</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13668.39582977621</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13668.39582977621</v>
       </c>
       <c r="M4" t="n">
         <v>13668.39582977623</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977623</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="P4" t="n">
         <v>13668.39582977622</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-703525.8716104693</v>
+        <v>-703955.430477058</v>
       </c>
       <c r="C6" t="n">
         <v>-190151.2722934074</v>
       </c>
       <c r="D6" t="n">
-        <v>-345955.0783872023</v>
+        <v>-345955.0783872022</v>
       </c>
       <c r="E6" t="n">
-        <v>-776959.4328101454</v>
+        <v>-776994.1707355812</v>
       </c>
       <c r="F6" t="n">
-        <v>-5906.741429339105</v>
+        <v>-5941.479354774754</v>
       </c>
       <c r="G6" t="n">
-        <v>-5906.741429339119</v>
+        <v>-5941.479354774783</v>
       </c>
       <c r="H6" t="n">
-        <v>-5906.741429339076</v>
+        <v>-5941.479354774798</v>
       </c>
       <c r="I6" t="n">
-        <v>-5906.741429339061</v>
+        <v>-5941.479354774783</v>
       </c>
       <c r="J6" t="n">
-        <v>-210053.2276368809</v>
+        <v>-210053.2276368807</v>
       </c>
       <c r="K6" t="n">
-        <v>-14202.29045065603</v>
+        <v>-14202.29045065618</v>
       </c>
       <c r="L6" t="n">
-        <v>-14202.29045065618</v>
+        <v>-14202.2904506562</v>
       </c>
       <c r="M6" t="n">
         <v>-138410.8011587147</v>
       </c>
       <c r="N6" t="n">
-        <v>-14202.2904506562</v>
+        <v>-14202.29045065619</v>
       </c>
       <c r="O6" t="n">
-        <v>-33630.00844428792</v>
+        <v>-33630.0084442879</v>
       </c>
       <c r="P6" t="n">
         <v>-14202.29045065618</v>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203977</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203966</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203975</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.16338668969189</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>135.3020022742396</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>140.9296946917185</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178.7992062300668</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>112.8530354026552</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>253.5433504166258</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>137.926691609091</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28032,7 +28032,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>155.5371197463828</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28068,10 +28068,10 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>87.20805649671104</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,22 +32075,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32318,7 +32318,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>448.9178583921318</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>332.1692388321076</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>290.1088399635148</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>232.1537035940586</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>576.057346513631</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>301.1823051500301</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,7 +33506,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>558.375963895806</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33521,7 +33521,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>699.0496615458086</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,16 +33995,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>232.153703594058</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,7 +34451,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>430.1367711736326</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,13 +35176,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>268.6811179591222</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>343.9279965587659</v>
       </c>
       <c r="O8" t="n">
         <v>171.8879043605652</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>510.9555620615567</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
         <v>674.2872727545556</v>
@@ -35267,10 +35267,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>237.8023794653643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060437</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066261</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35656,10 +35656,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35966,7 +35966,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>314.9434509778015</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>189.5729943876631</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,13 +36364,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>90.01966967204032</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>433.4611020691866</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>159.0482712280117</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,7 +37154,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>416.2419299737876</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>556.4534171013642</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>90.01966967203964</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,7 +38099,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>291.5823913937584</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
